--- a/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7841918967788736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5902172313637579</v>
+        <v>0.5902172313637578</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7596246373948554</v>
@@ -697,7 +697,7 @@
         <v>0.8082173418764349</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.60612814104478</v>
+        <v>0.6061281410447799</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7081707323024494</v>
+        <v>0.7155627583523186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5780728476027642</v>
+        <v>0.5819995239841036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7531027159485811</v>
+        <v>0.7505306984224221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5512356643738368</v>
+        <v>0.5434750997394181</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.721033363276439</v>
+        <v>0.727928424995311</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6717373681717835</v>
+        <v>0.6655456524115491</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8045174683360962</v>
+        <v>0.8012041255477815</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.587875679244348</v>
+        <v>0.5907309120505668</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7323736872925497</v>
+        <v>0.7280014040943478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6367441395270599</v>
+        <v>0.6344212621933477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7877477800574084</v>
+        <v>0.7862054053175043</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5756203913900609</v>
+        <v>0.5798532675306882</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7799701689469317</v>
+        <v>0.7802260977323656</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6551069813589856</v>
+        <v>0.6550026399881347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8166620079822233</v>
+        <v>0.8132411463982153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6309711630589464</v>
+        <v>0.6315218910663448</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7911624957090232</v>
+        <v>0.7923282599904231</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7400546242471233</v>
+        <v>0.7412066409743777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8596783706049218</v>
+        <v>0.8595891971235617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6517318388401572</v>
+        <v>0.6500767987425523</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7754112114630617</v>
+        <v>0.7775481189814388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.686975085071418</v>
+        <v>0.6871069994332447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8298325930683502</v>
+        <v>0.8273859089806246</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6306558495863335</v>
+        <v>0.6296806611563823</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7654912522555418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6468396655048136</v>
+        <v>0.6468396655048135</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.727232651893153</v>
@@ -821,7 +821,7 @@
         <v>0.8308989964525537</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6738248376028487</v>
+        <v>0.6738248376028488</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7015124325373979</v>
@@ -833,7 +833,7 @@
         <v>0.798538287485517</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6604658288979599</v>
+        <v>0.66046582889796</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6415258560753603</v>
+        <v>0.6443390986190112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6274345246563392</v>
+        <v>0.6263601111251492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7383322199590476</v>
+        <v>0.7360320217860107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6094197146666079</v>
+        <v>0.6132399270638721</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6998567110736346</v>
+        <v>0.696494935294901</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7019587229828284</v>
+        <v>0.7003283831855889</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8058163026338074</v>
+        <v>0.805794144774399</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6456559074068328</v>
+        <v>0.6474478178366686</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6801544639514266</v>
+        <v>0.6773718349520852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6764981459196944</v>
+        <v>0.6733061548864512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7799664949000776</v>
+        <v>0.7789448613198031</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6390357972080684</v>
+        <v>0.6400415900843242</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7066858944901421</v>
+        <v>0.7075273882484444</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6901151456633527</v>
+        <v>0.6863960829293417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7907590671522824</v>
+        <v>0.7905271583486461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6785268750530501</v>
+        <v>0.6811655442322108</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7553359502124288</v>
+        <v>0.7561958990278147</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7596027975525194</v>
+        <v>0.7594443548976123</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8546799338411641</v>
+        <v>0.8509452426936711</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7006604165087061</v>
+        <v>0.6991488689520846</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7222678325954547</v>
+        <v>0.7215020139346775</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7149893568434557</v>
+        <v>0.715793859948873</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8162108764177417</v>
+        <v>0.8164147573884609</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6823969457201418</v>
+        <v>0.6811379513806853</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8362366619082762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6525551076462236</v>
+        <v>0.6525551076462235</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6521519806634133</v>
@@ -957,7 +957,7 @@
         <v>0.8378293029800066</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6464142939060673</v>
+        <v>0.6464142939060675</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6352017650405543</v>
@@ -969,7 +969,7 @@
         <v>0.837045526310623</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6494677614970091</v>
+        <v>0.6494677614970092</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5804526089683488</v>
+        <v>0.581219469996474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6004930296899023</v>
+        <v>0.59986920105497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8073445152199382</v>
+        <v>0.808851214638696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6093224389187722</v>
+        <v>0.6164099409330581</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6154277548191674</v>
+        <v>0.6135888184720231</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.645531132461139</v>
+        <v>0.6450390783067191</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8106376460391037</v>
+        <v>0.8107067593760445</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6131991597843955</v>
+        <v>0.6145626101283951</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6112337294828734</v>
+        <v>0.6099003905065824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6332017162989507</v>
+        <v>0.6339538925620634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8177713949052101</v>
+        <v>0.8171975229432213</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6243975632551897</v>
+        <v>0.6236076212667874</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6548803670715702</v>
+        <v>0.6622363588205801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6772254048487488</v>
+        <v>0.6720540111508303</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8621551940723071</v>
+        <v>0.8635885606006665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6939639468902586</v>
+        <v>0.6935485554905696</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6889536708437284</v>
+        <v>0.6871848371820931</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7149099830614374</v>
+        <v>0.7165721848712522</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8626383120874952</v>
+        <v>0.8641917596419838</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6779759734400851</v>
+        <v>0.6770879387721629</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6633338439039485</v>
+        <v>0.661753173204134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6855445703724707</v>
+        <v>0.6831908089231196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.85832390386492</v>
+        <v>0.8557934835732269</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6728612439036276</v>
+        <v>0.6751087464298759</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.791038439464001</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6107194431630882</v>
+        <v>0.6107194431630883</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6845099460593626</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6487917112352097</v>
+        <v>0.6476985042229081</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6910744908849289</v>
+        <v>0.6950236672049093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7598791338003953</v>
+        <v>0.756931625516493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5674825012053027</v>
+        <v>0.5695651080068088</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6620859340918915</v>
+        <v>0.6637163478537597</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.764393798078729</v>
+        <v>0.762884008332224</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7660039801730029</v>
+        <v>0.7637079054750415</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5823791399178125</v>
+        <v>0.5813915761605225</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6631874532182241</v>
+        <v>0.664113682792051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7372569416099318</v>
+        <v>0.7392903825974283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7699647661623599</v>
+        <v>0.7685201629632276</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.584422942254965</v>
+        <v>0.583661578752209</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7091712158632262</v>
+        <v>0.7051997180314483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7530295349917947</v>
+        <v>0.7524824105824462</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8112236733442246</v>
+        <v>0.8132647211683819</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.638308763756072</v>
+        <v>0.6365802162975667</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7215053279009068</v>
+        <v>0.7182498789317086</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8151963805920555</v>
+        <v>0.8152321111548152</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8162982155676275</v>
+        <v>0.8162688879994213</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6400646284104963</v>
+        <v>0.6371170991500242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.70403838769575</v>
+        <v>0.7056555344334566</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7772620239149121</v>
+        <v>0.7772153515173246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8077706157619865</v>
+        <v>0.8060266413294601</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6284544324985263</v>
+        <v>0.6281571991522348</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>491479</v>
+        <v>496609</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>403386</v>
+        <v>406126</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>506578</v>
+        <v>504847</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>377359</v>
+        <v>372047</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>496324</v>
+        <v>501070</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>466320</v>
+        <v>462022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>538990</v>
+        <v>536770</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>421853</v>
+        <v>423901</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1012406</v>
+        <v>1006362</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>886355</v>
+        <v>883122</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1057636</v>
+        <v>1055566</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>807110</v>
+        <v>813045</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>541309</v>
+        <v>541486</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>457142</v>
+        <v>457069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>549331</v>
+        <v>547030</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>431944</v>
+        <v>432321</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>544597</v>
+        <v>545400</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>513746</v>
+        <v>514546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>575945</v>
+        <v>575885</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>467675</v>
+        <v>466487</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1071900</v>
+        <v>1074854</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>956278</v>
+        <v>956461</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1114140</v>
+        <v>1110855</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>884279</v>
+        <v>882911</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>616324</v>
+        <v>619027</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>632646</v>
+        <v>631563</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>751884</v>
+        <v>749541</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>632450</v>
+        <v>636415</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>676931</v>
+        <v>673679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>721688</v>
+        <v>720012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>838010</v>
+        <v>837987</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>683456</v>
+        <v>685353</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1311309</v>
+        <v>1305944</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1377629</v>
+        <v>1371129</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1605410</v>
+        <v>1603308</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1339634</v>
+        <v>1341743</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>678924</v>
+        <v>679733</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>695847</v>
+        <v>692097</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>805273</v>
+        <v>805036</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>704169</v>
+        <v>706907</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>730593</v>
+        <v>731424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>780952</v>
+        <v>780789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>888826</v>
+        <v>884942</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>741681</v>
+        <v>740081</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1392502</v>
+        <v>1391026</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1456013</v>
+        <v>1457651</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1680013</v>
+        <v>1680432</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1430534</v>
+        <v>1427895</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>393842</v>
+        <v>394363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>450561</v>
+        <v>450093</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>606876</v>
+        <v>608009</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>484144</v>
+        <v>489775</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>420855</v>
+        <v>419597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>499491</v>
+        <v>499111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>628856</v>
+        <v>628910</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>492630</v>
+        <v>493725</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>832714</v>
+        <v>830898</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>965055</v>
+        <v>966201</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1249103</v>
+        <v>1248227</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>997749</v>
+        <v>996486</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>444342</v>
+        <v>449333</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>508135</v>
+        <v>504255</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>648077</v>
+        <v>649154</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>551397</v>
+        <v>551067</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>471135</v>
+        <v>469925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>553174</v>
+        <v>554461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>669196</v>
+        <v>670401</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>544670</v>
+        <v>543957</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>903693</v>
+        <v>901539</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1044830</v>
+        <v>1041242</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1311045</v>
+        <v>1307180</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1075191</v>
+        <v>1078782</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>610300</v>
+        <v>609272</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>651379</v>
+        <v>655102</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>709914</v>
+        <v>707160</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>555812</v>
+        <v>557851</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>687002</v>
+        <v>688693</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>796619</v>
+        <v>795046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>793595</v>
+        <v>791217</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>642249</v>
+        <v>641160</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1311986</v>
+        <v>1313819</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1463247</v>
+        <v>1467283</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1517035</v>
+        <v>1514188</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1216908</v>
+        <v>1215322</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>667098</v>
+        <v>663362</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>709776</v>
+        <v>709260</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>757882</v>
+        <v>759789</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>625181</v>
+        <v>623488</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>748657</v>
+        <v>745279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>849563</v>
+        <v>849601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>845701</v>
+        <v>845671</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>705865</v>
+        <v>702615</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1392802</v>
+        <v>1396001</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1542646</v>
+        <v>1542553</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1591522</v>
+        <v>1588086</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1308592</v>
+        <v>1307973</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
     </row>
     <row r="24">
